--- a/Test_Case_Document.xlsx
+++ b/Test_Case_Document.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -106,6 +106,9 @@
     <t>The application should log in the user and start a session. The user should be redirected to the application's main or dashboard screen.</t>
   </si>
   <si>
+    <t>User logged in and page refreshes to show dashboard with navbar showing items</t>
+  </si>
+  <si>
     <t>end_session_1</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>1.User session terminated and redirected to login page  2. Information the user had access to must be hidden</t>
   </si>
   <si>
+    <t>User logged out and page refreshes to show login page</t>
+  </si>
+  <si>
     <t>manage_user_sessions_and_profile</t>
   </si>
   <si>
@@ -131,35 +137,44 @@
   </si>
   <si>
     <t>1. Navigate to the "Profile" section in the navbar.
-2. Update the user's name and email.
+2. Update the user's name and password.
 3.Save the changes.</t>
   </si>
   <si>
-    <t>username: "Joel"                     email: "joelrenjith11@gmail.com"</t>
+    <t>username: "Joel"                     password: "******"</t>
   </si>
   <si>
     <t>1. Profile settings updated correctly   2.Updated settings reflected after clicking save buttion with the correct details displayed</t>
   </si>
   <si>
-    <t>show_notif</t>
+    <t xml:space="preserve">User logged out and page refreshes to show login page. Login only worked with updated details and profile page shown with updated details. </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>show_notification</t>
   </si>
   <si>
     <t>UI_controller</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user gets a notification based on item metrics </t>
-  </si>
-  <si>
-    <t>User Client and Perishables Inventory System should be launched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Click on Notifications tab from User client landing page.  2) Look for unseen notifications </t>
-  </si>
-  <si>
-    <t>User's most frequently ordered items include eggs</t>
-  </si>
-  <si>
-    <t>User gets a notification for a fresh stock or discount on eggs</t>
+    <t xml:space="preserve">Verify that manager gets a notification based on item metrics </t>
+  </si>
+  <si>
+    <t>Manager logged in and Perishables Inventory System should be launched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Click on Notifications tab from User client landing page. </t>
+  </si>
+  <si>
+    <t>Banana approaching expiration</t>
+  </si>
+  <si>
+    <t>Manager  gets a notification about bananas abot to expire</t>
+  </si>
+  <si>
+    <t>"Banana is approaching expiration" showed in yellow highlight in the notifications page</t>
   </si>
   <si>
     <t>Gariman</t>
@@ -171,16 +186,19 @@
     <t>Display dashboard for user on landing page, based on item metrics, session info and user profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Successful User Login </t>
-  </si>
-  <si>
-    <t>1) Open User Client landing page.   2) Perform Successful User Login.   3) Dashboard should be visible</t>
-  </si>
-  <si>
-    <t>User is a frequent customer of the store</t>
-  </si>
-  <si>
-    <t>User gets store item metrics displayed on dashboard</t>
+    <t>Dashboard details ready to be displayed on successful login</t>
+  </si>
+  <si>
+    <t>1) Open Login page.   2) Perform Successful Staff Login.   3) Dashboard should be visible</t>
+  </si>
+  <si>
+    <t>login role set to staff</t>
+  </si>
+  <si>
+    <t>Staff gets store item metrics displayed on dashboard</t>
+  </si>
+  <si>
+    <t>Table showing stock overview and pi chart showing distribution of items based on shelf life displayed in dashboard</t>
   </si>
   <si>
     <t>show_perishable_catalog</t>
@@ -192,16 +210,19 @@
     <t>Display Perished, Fresh and Coming Stock metrics based on item metrics</t>
   </si>
   <si>
-    <t xml:space="preserve">Launch Admin Client and Perishables Inventory System </t>
-  </si>
-  <si>
-    <t>1) Open Admin Client Page.   2) Perform Successful Admin Login     3) Display Perishables Catalog</t>
-  </si>
-  <si>
-    <t>Some stock has perished, while some about to perish is at a discount, the fresh stock is being held until current stock sells</t>
+    <t>1. Database server running and connected to our software2.Perishables inventory system ready for display</t>
+  </si>
+  <si>
+    <t>1) Open Login Page.   2) Perform Successful Manager Login     3) Navigate to inventory</t>
+  </si>
+  <si>
+    <t>some about to perish is at a discount, the fresh stock is being held until current stock sells</t>
   </si>
   <si>
     <t>Should Display All Three Stock Information, along with stock attributes</t>
+  </si>
+  <si>
+    <t>Real time stock information, details on perishales , update price and discounts and promotional offers shown</t>
   </si>
   <si>
     <t>user_inp_for_disc_calc</t>
@@ -480,7 +501,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +518,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF57BB8A"/>
+        <bgColor rgb="FF57BB8A"/>
       </patternFill>
     </fill>
   </fills>
@@ -550,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -586,11 +613,20 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -971,7 +1007,9 @@
       <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="12" t="s">
         <v>18</v>
@@ -979,27 +1017,29 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="12" t="s">
         <v>18</v>
@@ -1007,455 +1047,471 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="J7" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
       <c r="J8" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="K10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="8"/>
       <c r="J11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="8"/>
       <c r="J12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="K13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+        <v>107</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -1463,90 +1519,90 @@
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
     </row>
     <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
     </row>
     <row r="32">
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
